--- a/Assets/Resources/ResCfg/map.xlsx
+++ b/Assets/Resources/ResCfg/map.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46195F4-C682-4F73-8938-2ECBEB670DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1340EE69-C453-4139-80D1-83FC1EF40439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="3430" windowWidth="18030" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>sceneName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,9 +73,6 @@
     <t>0,0,0</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +129,34 @@
   </si>
   <si>
     <t>37,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失落平原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneGamePVP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.34,3.5,-7.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2.2,-3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20,-0.524,0.802</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,8 +294,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:L3" tableType="xml" totalsRowShown="0" connectionId="7">
-  <autoFilter ref="A1:L3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:L4" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="A1:L4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="ID" dataDxfId="10">
       <xmlColumnPr mapId="7" xpath="/root/item/@ID" xmlDataType="integer"/>
@@ -600,34 +625,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" customWidth="1"/>
+    <col min="9" max="9" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -648,19 +673,19 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -668,68 +693,104 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ResCfg/map.xlsx
+++ b/Assets/Resources/ResCfg/map.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1340EE69-C453-4139-80D1-83FC1EF40439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5348E6A-469C-43D7-80F7-FC04F6CF6B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="3430" windowWidth="18030" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,17 @@
   <connection id="7" xr16:uid="{1CEE1206-797E-4756-8C9F-B6FC39170D1C}" name="map2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\xiangmmu\Cfg\map.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="8" xr16:uid="{21FA2AE8-DFB3-4B84-A5C9-53ADA7816C34}" name="map3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="E:\xiangmmu\Cfg\map.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="9" xr16:uid="{DB705796-5109-477F-A419-19BAA71EA8BE}" name="map4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="E:\xiangmmu\Cfg\map.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>sceneName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mainCamPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainCamRote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>playerBornPos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,14 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-0.34,7,-7.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,15 +138,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-0.34,3.5,-7.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2.2,-3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-20,-0.524,0.802</t>
+    <t>CameraFollowAndRotatePos</t>
+  </si>
+  <si>
+    <t>CameraFollowAndRotateRote</t>
+  </si>
+  <si>
+    <t>CameraUpAndDownPos</t>
+  </si>
+  <si>
+    <t>CameraUpAndDownRote</t>
+  </si>
+  <si>
+    <t>CameraZoomContainerPos</t>
+  </si>
+  <si>
+    <t>CameraZoomContainerRote</t>
+  </si>
+  <si>
+    <t>0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,90,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,17 +212,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -259,7 +284,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema4">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="root">
         <xsd:complexType>
@@ -270,14 +295,18 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="mapName" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="sceneName" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="power" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="mainCamPos" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="mainCamRote" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="playerBornPos" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="playerBornRote" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monsterLst" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="exp" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="aura" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="crystal" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CameraFollowAndRotatePos" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CameraFollowAndRotateRote" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CameraUpAndDownPos" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CameraUpAndDownRote" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CameraZoomContainerPos" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CameraZoomContainerRote" form="unqualified"/>
                 </xsd:sequence>
                 <xsd:attribute name="ID" form="unqualified" type="xsd:integer"/>
               </xsd:complexType>
@@ -287,51 +316,63 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="7" Name="root_映射" RootElement="root" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
+  <Map ID="9" Name="root_映射" RootElement="root" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="9" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:L4" tableType="xml" totalsRowShown="0" connectionId="7">
-  <autoFilter ref="A1:L4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="ID" dataDxfId="10">
-      <xmlColumnPr mapId="7" xpath="/root/item/@ID" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="mapName" name="mapName" dataDxfId="9">
-      <xmlColumnPr mapId="7" xpath="/root/item/mapName" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="sceneName" name="sceneName" dataDxfId="8">
-      <xmlColumnPr mapId="7" xpath="/root/item/sceneName" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="power" name="power" dataDxfId="7">
-      <xmlColumnPr mapId="7" xpath="/root/item/power" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="mainCamPos" name="mainCamPos" dataDxfId="6">
-      <xmlColumnPr mapId="7" xpath="/root/item/mainCamPos" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="mainCamRote" name="mainCamRote" dataDxfId="5">
-      <xmlColumnPr mapId="7" xpath="/root/item/mainCamRote" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="playerBornPos" name="playerBornPos" dataDxfId="4">
-      <xmlColumnPr mapId="7" xpath="/root/item/playerBornPos" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="playerBornRote" name="playerBornRote" dataDxfId="3">
-      <xmlColumnPr mapId="7" xpath="/root/item/playerBornRote" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:P4" tableType="xml" totalsRowShown="0" connectionId="9">
+  <autoFilter ref="A1:P4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="ID" dataDxfId="14">
+      <xmlColumnPr mapId="9" xpath="/root/item/@ID" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="mapName" name="mapName" dataDxfId="13">
+      <xmlColumnPr mapId="9" xpath="/root/item/mapName" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="sceneName" name="sceneName" dataDxfId="12">
+      <xmlColumnPr mapId="9" xpath="/root/item/sceneName" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="power" name="power" dataDxfId="11">
+      <xmlColumnPr mapId="9" xpath="/root/item/power" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="playerBornPos" name="playerBornPos" dataDxfId="10">
+      <xmlColumnPr mapId="9" xpath="/root/item/playerBornPos" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="playerBornRote" name="playerBornRote" dataDxfId="9">
+      <xmlColumnPr mapId="9" xpath="/root/item/playerBornRote" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="monsterLst" name="monsterLst">
-      <xmlColumnPr mapId="7" xpath="/root/item/monsterLst" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="exp" name="exp" dataDxfId="2">
-      <xmlColumnPr mapId="7" xpath="/root/item/exp" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="aura" name="aura" dataDxfId="1">
-      <xmlColumnPr mapId="7" xpath="/root/item/aura" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="crystal" name="crystal" dataDxfId="0">
-      <xmlColumnPr mapId="7" xpath="/root/item/crystal" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/root/item/monsterLst" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="exp" name="exp" dataDxfId="8">
+      <xmlColumnPr mapId="9" xpath="/root/item/exp" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="aura" name="aura" dataDxfId="7">
+      <xmlColumnPr mapId="9" xpath="/root/item/aura" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="crystal" name="crystal" dataDxfId="6">
+      <xmlColumnPr mapId="9" xpath="/root/item/crystal" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{BCFB4BA0-64A2-44EB-99A2-706FE38B3BC6}" uniqueName="CameraFollowAndRotatePos" name="CameraFollowAndRotatePos" dataDxfId="5">
+      <xmlColumnPr mapId="9" xpath="/root/item/CameraFollowAndRotatePos" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{EDAC9DF1-6DA6-4D6F-A23E-03E9ADF0556F}" uniqueName="CameraFollowAndRotateRote" name="CameraFollowAndRotateRote" dataDxfId="4">
+      <xmlColumnPr mapId="9" xpath="/root/item/CameraFollowAndRotateRote" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{28F3677C-F29F-42D0-BCC2-221E4367DBD8}" uniqueName="CameraUpAndDownPos" name="CameraUpAndDownPos" dataDxfId="3">
+      <xmlColumnPr mapId="9" xpath="/root/item/CameraUpAndDownPos" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{165516E8-3A56-4467-8941-F986042D981F}" uniqueName="CameraUpAndDownRote" name="CameraUpAndDownRote" dataDxfId="2">
+      <xmlColumnPr mapId="9" xpath="/root/item/CameraUpAndDownRote" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{63C33CFA-134A-467E-B83A-ABB3C56EAFE7}" uniqueName="CameraZoomContainerPos" name="CameraZoomContainerPos" dataDxfId="1">
+      <xmlColumnPr mapId="9" xpath="/root/item/CameraZoomContainerPos" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{A4D40C10-F26A-4DDB-BE8C-E7A68B10253B}" uniqueName="CameraZoomContainerRote" name="CameraZoomContainerRote" dataDxfId="0">
+      <xmlColumnPr mapId="9" xpath="/root/item/CameraZoomContainerRote" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -625,34 +666,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.36328125" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" customWidth="1"/>
-    <col min="9" max="9" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -667,130 +712,178 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
